--- a/biology/Botanique/Polystachya/Polystachya.xlsx
+++ b/biology/Botanique/Polystachya/Polystachya.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Polystachya est un genre d'orchidées d'Afrique, d'Amérique et d'Asie tropicales.
 Il a été décrit par William Jackson Hooker (Exot. Fl. 2(10): t. 103. 1824 [May 1824]).
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -538,9 +552,11 @@
           <t>Liste des espèces, variétés et sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (10 septembre 2017)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (10 septembre 2017) :
 Polystachya aconitiflora Summerh.
 Polystachya acridolens Summerh.
 Polystachya acuminata Summerh.
@@ -779,15 +795,15 @@
 Polystachya xerophila Kraenzl.
 Polystachya zambesiaca Rolfe
 Polystachya zuluensis L.Bolus
-Selon GRIN            (10 septembre 2017)[3] :
+Selon GRIN            (10 septembre 2017) :
 Polystachya concreta (Jacq.) Garay &amp; H. R. Sweet
 Polystachya cultriformis Lindl. ex Spreng.
 Polystachya oligophylla Schltr.
 Polystachya rivae Schweinf.
-Selon ITIS      (10 septembre 2017)[4] :
+Selon ITIS      (10 septembre 2017) :
 Polystachya concreta (Jacq.) Garay &amp; H.R. Sweet
 Polystachya foliosa (Hook.) Rchb. f.
-Selon World Checklist of Selected Plant Families (WCSP)  (10 septembre 2017)[5] :
+Selon World Checklist of Selected Plant Families (WCSP)  (10 septembre 2017) :
 Polystachya aconitiflora Summerh. (1942)
 Polystachya acridolens Summerh. (1947 publ. 1948)
 Polystachya acuminata Summerh. (1947 publ. 1948)
@@ -1059,7 +1075,7 @@
 Polystachya xerophila Kraenzl. (1904)
 Polystachya zambesiaca Rolfe (1895)
 Polystachya zuluensis L.Bolus (1939)
-Selon NCBI  (10 septembre 2017)[6] :
+Selon NCBI  (10 septembre 2017) :
 Polystachya adansoniae
 Polystachya affinis
 Polystachya albescens
@@ -1154,7 +1170,7 @@
 Polystachya vulcanica
 variété Polystachya vulcanica var. aconitiflora
 Polystachya zambesiaca
-Selon The Plant List            (10 septembre 2017)[7] :
+Selon The Plant List            (10 septembre 2017) :
 Polystachya abbreviata Rchb.f.
 Polystachya acridolens Summerh.
 Polystachya acuminata Summerh.
@@ -1400,7 +1416,7 @@
 Polystachya xerophila Kraenzl.
 Polystachya zambesiaca Rolfe
 Polystachya zuluensis L.Bolus
-Selon Tropicos                                           (10 septembre 2017)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (10 septembre 2017) (Attention liste brute contenant possiblement des synonymes) :
 Polystachya abbreviata Rchb. f.
 Polystachya aconitiflora Summerh.
 Polystachya acridolens Summerh.
@@ -1432,7 +1448,7 @@
 Polystachya bennettiana Rchb. f.
 Polystachya bequaertii Summerh.
 Polystachya bertauxiana Szlach. &amp; Olszewski
-Poly</t>
+Polystachya bicalcarata K</t>
         </is>
       </c>
     </row>
